--- a/file/test_ja.xlsx
+++ b/file/test_ja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\APLY\AQR\homepage\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370D5AA-CCE8-4AB3-9446-8103A60C2207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6C45BF-61B8-4065-8C11-CADCA2DDAA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25080" yWindow="3480" windowWidth="25080" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1365" yWindow="2895" windowWidth="25080" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재고" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +201,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +427,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -523,7 +526,7 @@
       <c r="F4" s="7">
         <v>44920.521469907406</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
